--- a/trunk/doc/卡牌.xlsx
+++ b/trunk/doc/卡牌.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,23 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>地理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宗教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伊苏斯之战</t>
   </si>
   <si>
@@ -76,24 +56,422 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文艺复兴</t>
+    <t>诺曼底登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字军东征</t>
+  </si>
+  <si>
+    <t>最后的晚餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由引导人民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格尔尼卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日葵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明上河图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由女神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颐和园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢浮宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃菲尔铁塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>南北战争</t>
-  </si>
-  <si>
-    <t>明治维新</t>
-  </si>
-  <si>
-    <t>诺曼底登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字军东征</t>
-  </si>
-  <si>
-    <t>工业革命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕塑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加歇医生的画像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙娜丽莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西斯廷圣母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呐喊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富春山居图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩熙载夜宴图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步辇图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛神赋图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马拉之死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾穗者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日出·印象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏尔加河上的纤夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立宣言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄州寒食帖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰亭序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭侄文稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死海古卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉谟拉比法典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗塞塔石碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙子兵法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物种起源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然哲学之数学原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资本论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掷铁饼者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴尔扎克像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米洛斯的维纳斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅菲尔蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅典娜神像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮身人面像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐山大佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国国家纪念碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金字塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古罗马竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅典卫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰姬陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科隆大教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬空寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比萨斜塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊雨林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大堡礁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜马拉雅山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科罗拉多大峡谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维多利亚瀑布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼亚加拉瀑布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝加尔湖</t>
+  </si>
+  <si>
+    <t>黄石国家公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉斯加冰河湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乞力马扎罗山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱因斯坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛洛依德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿破仑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达·芬奇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚里士多德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥伦布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君士坦丁大帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恺撒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯匹林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电灯泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内燃机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱氧核糖核酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斐波那契数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子计算机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿基米德定律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠杆原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淝水之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十月革命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马拉松战役</t>
+  </si>
+  <si>
+    <t>伽俐略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华盛顿</t>
+  </si>
+  <si>
+    <t>国富论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君主论</t>
+  </si>
+  <si>
+    <t>拉奥孔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +479,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +510,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +554,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,106 +924,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>18</v>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/doc/卡牌.xlsx
+++ b/trunk/doc/卡牌.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特洛伊木马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赤壁之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,18 +251,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金字塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>古罗马竞技场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雅典卫城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>悬空寺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比萨斜塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -414,10 +398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>虫洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杠杆原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>淝水之战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,6 +448,28 @@
   </si>
   <si>
     <t>拉奥孔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细胞学说</t>
+  </si>
+  <si>
+    <t>能量守恒和转化定律</t>
+  </si>
+  <si>
+    <t>特洛伊战争</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡夫金字塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马斗兽场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京故宫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,12 +522,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -546,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,6 +564,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,13 +940,13 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
@@ -942,25 +955,25 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -969,361 +982,361 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="14.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
+      <c r="G7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>94</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
         <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
+      <c r="B17" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
